--- a/Práctica 2/Memoria/data/conj4.xlsx
+++ b/Práctica 2/Memoria/data/conj4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Mi unidad\Universidad\Curso_4_Cuatri_7\CdeDatos\cienciadedatos\Práctica 2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UAH\Curso 2023 - 2024\Cuatrimestre 1\Fundamentos de la ciencia de datos\Laboratorio\cienciadedatos\Práctica 2\Memoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E075473-8970-485D-90FA-6BB3E8291EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4F5113-4013-4A07-BBE1-AB44029640A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{C952CAA6-241C-4FF0-A038-CAF443887702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C952CAA6-241C-4FF0-A038-CAF443887702}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>12.5</v>
